--- a/data/trans_bre/P25_11-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>5,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,25</t>
+          <t>7,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,88</t>
+          <t>7,66</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>7,64</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>9,19</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>82,92%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>170,81%</t>
+          <t>9,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>187,38%</t>
+          <t>81,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>131,71%</t>
+          <t>152,08%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>166,09%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>101,94%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>131,69%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>101,3%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,29; 8,16</t>
+          <t>1,84; 8,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,04</t>
+          <t>3,92; 10,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,72</t>
+          <t>4,57; 10,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,73; 12,22</t>
+          <t>3,94; 11,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,95; 185,98</t>
+          <t>6,13; 12,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>65,17; 340,02</t>
+          <t>5,48; 12,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>86,75; 357,79</t>
+          <t>16,38; 183,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>63,07; 219,77</t>
+          <t>57,0; 325,45</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>58,12; 311,44</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>35,5; 188,15</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>69,92; 220,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>51,86; 167,57</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,11</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>8,36</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>10,04</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>81,98%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,27%</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>107,71%</t>
+          <t>74,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>258,44%</t>
+          <t>77,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>107,03%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>122,6%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>258,45%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>98,49%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 7,5</t>
+          <t>0,28; 7,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 7,24</t>
+          <t>0,35; 7,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 9,61</t>
+          <t>1,31; 10,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,42; 15,84</t>
+          <t>4,3; 13,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 216,57</t>
+          <t>4,85; 16,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-14,63; 185,79</t>
+          <t>2,56; 13,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 280,64</t>
+          <t>-1,15; 202,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>94,04; 726,48</t>
+          <t>-0,58; 178,2</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 296,6</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>46,88; 261,42</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>81,59; 711,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24,66; 252,53</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>3,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>4,76</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>143,73%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>94,32%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>61,82%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>66,61%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 18,04</t>
+          <t>-3,31; 9,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 14,15</t>
+          <t>-0,46; 13,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 10,42</t>
+          <t>-2,24; 10,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-2,64; 12,8</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-16,25; 644,96</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,58; 316,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-29,05; 262,99</t>
+          <t>-43,96; 334,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-9,65; 292,1</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-27,31; 277,68</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-36,92; 307,24</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>4,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>7,6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>9,44</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>89,62%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>112,65%</t>
+          <t>8,94</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>132,98%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>151,46%</t>
+          <t>111,6%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>125,29%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>105,87%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>151,44%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>101,53%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,3</t>
+          <t>2,06; 6,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,43; 7,96</t>
+          <t>3,58; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,71</t>
+          <t>3,78; 8,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,78; 12,53</t>
+          <t>4,83; 10,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>33,34; 168,81</t>
+          <t>6,49; 12,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,21; 193,64</t>
+          <t>5,89; 12,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,93; 219,84</t>
+          <t>27,07; 147,18</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>88,48; 246,4</t>
+          <t>48,56; 189,33</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>52,65; 210,76</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>53,66; 169,17</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>85,34; 235,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>58,07; 165,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_11-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_11-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,08</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,66</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,64</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,29</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>81,46%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>152,08%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>166,09%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>101,94%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>131,69%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>101,3%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>5.624779992325058</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.173159180296164</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.584738496972106</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>7.582245117182911</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>9.185617538761035</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>9.299905801233566</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.9265923142269904</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.535124314974922</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.634145669942815</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>1.017960856948904</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.316908376959266</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.02119973478942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>1,84; 8,32</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,92; 10,1</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,57; 10,67</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,94; 11,47</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 12,52</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 12,65</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>16,38; 183,17</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>57,0; 325,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>58,12; 311,44</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>35,5; 188,15</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>69,92; 220,18</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>51,86; 167,57</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.175308565902562</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>3.966613964960948</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>4.422234012491606</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.827773415596984</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>6.131954230990032</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>5.525987964848984</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.2206214087464561</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.5536917809074928</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.5234365497306026</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3541743290443943</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.6991991130344779</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.5207014966602573</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.163716786391648</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.19514114220637</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.65486921644503</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>11.29307430827374</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>12.52329444334174</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>12.61208597958838</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.03728004879658</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>3.299076089459381</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.10373856477302</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.885639962928829</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>2.201794796145553</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.680101337107278</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,01</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,33</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>8,36</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,04</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,51</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>74,62%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>77,83%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>107,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>122,6%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>258,45%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>98,49%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 7,74</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,35; 7,33</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 10,48</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>4,3; 13,2</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>4,85; 16,22</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,56; 13,86</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-1,15; 202,06</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-0,58; 178,2</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 296,6</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>46,88; 261,42</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>81,59; 711,09</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>24,66; 252,53</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.774849783622641</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.784428277314196</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.895764361494143</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>8.624126160494447</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>10.04420983447843</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>7.507314561103022</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6978539368251793</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.6167276786597617</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.096656087195315</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.272687246872827</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>2.584530656412699</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.9866122536252844</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,48</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,15</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,14</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,76</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>63,71%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>94,32%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>61,82%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>66,61%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.155291029179031</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.233152660823267</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.337308628239953</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>4.519989402847927</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>4.853577036846357</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>2.665791251209222</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.07412397583305476</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1897385897193799</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.004876069470973445</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.4980645957762351</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.8158847292043608</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.2532738562338238</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 9,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,46; 13,18</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,24; 10,74</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 12,8</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-43,96; 334,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-9,65; 292,1</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-27,31; 277,68</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-36,92; 307,24</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.56065020226994</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.030390006903862</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.17462204148372</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>13.70222281769282</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>16.21848724602418</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>13.78547874712999</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.036095984890687</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.599971588054226</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>2.790513235394398</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.641085067421867</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>7.11089104805868</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.541355697951682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,51</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,01</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>9,44</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,94</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>77,7%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>111,6%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>125,29%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>105,87%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>151,44%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>101,53%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>5.408572877623303</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.455226841189311</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.970291209160921</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.791337422063738</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>1.130274612366402</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.00308144611747</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.5916656587292577</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.6973947448028311</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 6,89</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 8,24</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,78; 8,86</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,83; 10,19</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 12,24</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 12,29</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>27,07; 147,18</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>48,56; 189,33</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>52,65; 210,76</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>53,66; 169,17</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>85,34; 235,29</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>58,07; 165,06</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.9306625495435032</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.06417973146347153</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.48876303713156</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.642867397203625</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>-0.2892642788735163</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.07300943639822186</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.29028616822983</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.3532997027714936</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.65081501432456</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.57696242965278</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.47641362308519</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>12.62908963288998</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>5.17516571119493</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.027869064853883</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>2.662679105443518</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>3.146516639500334</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>4.908869008699559</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.862954925168598</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.496332198954072</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.68021498849386</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>9.442643299625047</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>8.936866237134046</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.868895129917759</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.047725684487267</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.251843313889002</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.080657200323062</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.514419345998858</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.021926028432285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>2.316288287042784</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>3.083501140787693</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.758029330018789</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.983174018086594</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>6.49322077075135</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>5.963079725265978</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.3274809669689845</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.3665161704205993</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.527197334995808</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5557758700556747</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.8533957624152696</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.5933241250813841</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>7.245126709689896</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>8.040993272808951</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.774004694583869</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.26763211904006</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>12.241116796112</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>12.31804920795031</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.642183858039699</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.818041570415126</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.088445402104259</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.746989454096351</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.352922650625812</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.664692900484685</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
